--- a/IKEA_settings.xlsx
+++ b/IKEA_settings.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340D3040-6BCD-435D-B09C-550656B5F84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="30984" windowHeight="16824" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -424,40 +425,40 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -468,7 +469,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -486,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -511,7 +512,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{71A09398-14FD-4AE6-9576-5AA88A51F562}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EE936763-C31C-4AF6-9D3B-E31FF6EE7F60}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{2BC87650-31E1-45F4-A285-11735A31D1AE}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{44A87F7B-748F-4172-8060-CADF319C9081}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{F24EF184-1EE0-4F24-8EF8-D8671AE1BDEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
